--- a/ResultadoEleicoesDistritos/BRAGA_GUIMARÃES.xlsx
+++ b/ResultadoEleicoesDistritos/BRAGA_GUIMARÃES.xlsx
@@ -597,64 +597,64 @@
         <v>42966</v>
       </c>
       <c r="H2" t="n">
-        <v>1586</v>
+        <v>1644</v>
       </c>
       <c r="I2" t="n">
-        <v>4259</v>
+        <v>4352</v>
       </c>
       <c r="J2" t="n">
-        <v>17712</v>
+        <v>17849</v>
       </c>
       <c r="K2" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="L2" t="n">
-        <v>4846</v>
+        <v>4919</v>
       </c>
       <c r="M2" t="n">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="N2" t="n">
-        <v>3034</v>
+        <v>3002</v>
       </c>
       <c r="O2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P2" t="n">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="Q2" t="n">
+        <v>24</v>
+      </c>
+      <c r="R2" t="n">
+        <v>239</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1901</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3164</v>
+      </c>
+      <c r="U2" t="n">
+        <v>236</v>
+      </c>
+      <c r="V2" t="n">
+        <v>27270</v>
+      </c>
+      <c r="W2" t="n">
+        <v>10</v>
+      </c>
+      <c r="X2" t="n">
+        <v>27399</v>
+      </c>
+      <c r="Y2" t="n">
         <v>29</v>
       </c>
-      <c r="R2" t="n">
-        <v>258</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1955</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3064</v>
-      </c>
-      <c r="U2" t="n">
-        <v>249</v>
-      </c>
-      <c r="V2" t="n">
-        <v>27481</v>
-      </c>
-      <c r="W2" t="n">
-        <v>6</v>
-      </c>
-      <c r="X2" t="n">
-        <v>27535</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>31</v>
-      </c>
       <c r="Z2" t="n">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="AA2" t="n">
-        <v>172</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
